--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Kdr</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H2">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I2">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J2">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>135.956787211895</v>
+        <v>142.158333</v>
       </c>
       <c r="N2">
-        <v>135.956787211895</v>
+        <v>426.474999</v>
       </c>
       <c r="O2">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241082</v>
       </c>
       <c r="P2">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241081</v>
       </c>
       <c r="Q2">
-        <v>6017.357786383408</v>
+        <v>6717.927724431113</v>
       </c>
       <c r="R2">
-        <v>6017.357786383408</v>
+        <v>60461.34951988002</v>
       </c>
       <c r="S2">
-        <v>0.6041563190027274</v>
+        <v>0.5969062312103566</v>
       </c>
       <c r="T2">
-        <v>0.6041563190027274</v>
+        <v>0.5969062312103564</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H3">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I3">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J3">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.175352711602379</v>
+        <v>0.2277323333333333</v>
       </c>
       <c r="N3">
-        <v>0.175352711602379</v>
+        <v>0.6831970000000001</v>
       </c>
       <c r="O3">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="P3">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="Q3">
-        <v>7.760995432169953</v>
+        <v>10.76186899187533</v>
       </c>
       <c r="R3">
-        <v>7.760995432169953</v>
+        <v>96.856820926878</v>
       </c>
       <c r="S3">
-        <v>0.0007792214786873935</v>
+        <v>0.0009562214605790338</v>
       </c>
       <c r="T3">
-        <v>0.0007792214786873935</v>
+        <v>0.0009562214605790335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H4">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I4">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J4">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.07518513934902</v>
+        <v>4.576418</v>
       </c>
       <c r="N4">
-        <v>4.07518513934902</v>
+        <v>13.729254</v>
       </c>
       <c r="O4">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001626</v>
       </c>
       <c r="P4">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001625</v>
       </c>
       <c r="Q4">
-        <v>180.365008118332</v>
+        <v>216.266220291044</v>
       </c>
       <c r="R4">
-        <v>180.365008118332</v>
+        <v>1946.395982619396</v>
       </c>
       <c r="S4">
-        <v>0.01810905438068717</v>
+        <v>0.01921584449659548</v>
       </c>
       <c r="T4">
-        <v>0.01810905438068717</v>
+        <v>0.01921584449659547</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H5">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I5">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J5">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.10441272247516</v>
+        <v>2.532751666666667</v>
       </c>
       <c r="N5">
-        <v>2.10441272247516</v>
+        <v>7.598255</v>
       </c>
       <c r="O5">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="P5">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="Q5">
-        <v>93.13991997776711</v>
+        <v>119.6893793105966</v>
       </c>
       <c r="R5">
-        <v>93.13991997776711</v>
+        <v>1077.20441379537</v>
       </c>
       <c r="S5">
-        <v>0.009351458431358586</v>
+        <v>0.01063472833450959</v>
       </c>
       <c r="T5">
-        <v>0.009351458431358586</v>
+        <v>0.01063472833450958</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H6">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I6">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J6">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09900100675710451</v>
+        <v>0.1328223333333333</v>
       </c>
       <c r="N6">
-        <v>0.09900100675710451</v>
+        <v>0.398467</v>
       </c>
       <c r="O6">
-        <v>0.0006951793635566143</v>
+        <v>0.0008876833376071904</v>
       </c>
       <c r="P6">
-        <v>0.0006951793635566143</v>
+        <v>0.00088768333760719</v>
       </c>
       <c r="Q6">
-        <v>4.381719302775188</v>
+        <v>6.276739581095334</v>
       </c>
       <c r="R6">
-        <v>4.381719302775188</v>
+        <v>56.490656229858</v>
       </c>
       <c r="S6">
-        <v>0.0004399345192433568</v>
+        <v>0.0005577054593807435</v>
       </c>
       <c r="T6">
-        <v>0.0004399345192433568</v>
+        <v>0.0005577054593807433</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H7">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I7">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J7">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.956787211895</v>
+        <v>142.158333</v>
       </c>
       <c r="N7">
-        <v>135.956787211895</v>
+        <v>426.474999</v>
       </c>
       <c r="O7">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241082</v>
       </c>
       <c r="P7">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241081</v>
       </c>
       <c r="Q7">
-        <v>1533.981763598129</v>
+        <v>1604.359378835315</v>
       </c>
       <c r="R7">
-        <v>1533.981763598129</v>
+        <v>14439.23440951783</v>
       </c>
       <c r="S7">
-        <v>0.1540152353595992</v>
+        <v>0.142551713803779</v>
       </c>
       <c r="T7">
-        <v>0.1540152353595992</v>
+        <v>0.142551713803779</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H8">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I8">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J8">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.175352711602379</v>
+        <v>0.2277323333333333</v>
       </c>
       <c r="N8">
-        <v>0.175352711602379</v>
+        <v>0.6831970000000001</v>
       </c>
       <c r="O8">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="P8">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="Q8">
-        <v>1.978480569537888</v>
+        <v>2.570123728500556</v>
       </c>
       <c r="R8">
-        <v>1.978480569537888</v>
+        <v>23.131113556505</v>
       </c>
       <c r="S8">
-        <v>0.0001986439198970823</v>
+        <v>0.0002283625146701751</v>
       </c>
       <c r="T8">
-        <v>0.0001986439198970823</v>
+        <v>0.000228362514670175</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H9">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I9">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J9">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.07518513934902</v>
+        <v>4.576418</v>
       </c>
       <c r="N9">
-        <v>4.07518513934902</v>
+        <v>13.729254</v>
       </c>
       <c r="O9">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001626</v>
       </c>
       <c r="P9">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001625</v>
       </c>
       <c r="Q9">
-        <v>45.97975441494228</v>
+        <v>51.64817977832333</v>
       </c>
       <c r="R9">
-        <v>45.97975441494228</v>
+        <v>464.83361800491</v>
       </c>
       <c r="S9">
-        <v>0.004616471242385077</v>
+        <v>0.004589081872410974</v>
       </c>
       <c r="T9">
-        <v>0.004616471242385077</v>
+        <v>0.004589081872410973</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H10">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I10">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J10">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.10441272247516</v>
+        <v>2.532751666666667</v>
       </c>
       <c r="N10">
-        <v>2.10441272247516</v>
+        <v>7.598255</v>
       </c>
       <c r="O10">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="P10">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="Q10">
-        <v>23.74379981728749</v>
+        <v>28.58393036078611</v>
       </c>
       <c r="R10">
-        <v>23.74379981728749</v>
+        <v>257.2553732470749</v>
       </c>
       <c r="S10">
-        <v>0.002383931154835276</v>
+        <v>0.002539760301794696</v>
       </c>
       <c r="T10">
-        <v>0.002383931154835276</v>
+        <v>0.002539760301794695</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H11">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I11">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J11">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09900100675710451</v>
+        <v>0.1328223333333333</v>
       </c>
       <c r="N11">
-        <v>0.09900100675710451</v>
+        <v>0.398467</v>
       </c>
       <c r="O11">
-        <v>0.0006951793635566143</v>
+        <v>0.0008876833376071904</v>
       </c>
       <c r="P11">
-        <v>0.0006951793635566143</v>
+        <v>0.00088768333760719</v>
       </c>
       <c r="Q11">
-        <v>1.117014766659377</v>
+        <v>1.498995885117222</v>
       </c>
       <c r="R11">
-        <v>1.117014766659377</v>
+        <v>13.490962966055</v>
       </c>
       <c r="S11">
-        <v>0.000112150806658652</v>
+        <v>0.000133189879541451</v>
       </c>
       <c r="T11">
-        <v>0.000112150806658652</v>
+        <v>0.0001331898795414509</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H12">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I12">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J12">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>135.956787211895</v>
+        <v>142.158333</v>
       </c>
       <c r="N12">
-        <v>135.956787211895</v>
+        <v>426.474999</v>
       </c>
       <c r="O12">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241082</v>
       </c>
       <c r="P12">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241081</v>
       </c>
       <c r="Q12">
-        <v>18.61194617792969</v>
+        <v>34.182966278181</v>
       </c>
       <c r="R12">
-        <v>18.61194617792969</v>
+        <v>307.646696503629</v>
       </c>
       <c r="S12">
-        <v>0.001868681453142101</v>
+        <v>0.003037249939218062</v>
       </c>
       <c r="T12">
-        <v>0.001868681453142101</v>
+        <v>0.003037249939218061</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H13">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I13">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J13">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.175352711602379</v>
+        <v>0.2277323333333333</v>
       </c>
       <c r="N13">
-        <v>0.175352711602379</v>
+        <v>0.6831970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="P13">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="Q13">
-        <v>0.02400509233430874</v>
+        <v>0.05475983367633334</v>
       </c>
       <c r="R13">
-        <v>0.02400509233430874</v>
+        <v>0.492838503087</v>
       </c>
       <c r="S13">
-        <v>2.410165513979374E-06</v>
+        <v>4.865560822063481E-06</v>
       </c>
       <c r="T13">
-        <v>2.410165513979374E-06</v>
+        <v>4.865560822063479E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H14">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I14">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J14">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.07518513934902</v>
+        <v>4.576418</v>
       </c>
       <c r="N14">
-        <v>4.07518513934902</v>
+        <v>13.729254</v>
       </c>
       <c r="O14">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001626</v>
       </c>
       <c r="P14">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001625</v>
       </c>
       <c r="Q14">
-        <v>0.5578767197584007</v>
+        <v>1.100431743026</v>
       </c>
       <c r="R14">
-        <v>0.5578767197584007</v>
+        <v>9.903885687234</v>
       </c>
       <c r="S14">
-        <v>5.601208328167639E-05</v>
+        <v>9.777636666811817E-05</v>
       </c>
       <c r="T14">
-        <v>5.601208328167639E-05</v>
+        <v>9.777636666811813E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H15">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I15">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J15">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.10441272247516</v>
+        <v>2.532751666666667</v>
       </c>
       <c r="N15">
-        <v>2.10441272247516</v>
+        <v>7.598255</v>
       </c>
       <c r="O15">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="P15">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="Q15">
-        <v>0.2880857743851672</v>
+        <v>0.6090178675116666</v>
       </c>
       <c r="R15">
-        <v>0.2880857743851672</v>
+        <v>5.481160807605</v>
       </c>
       <c r="S15">
-        <v>2.8924462727386E-05</v>
+        <v>5.411290132135819E-05</v>
       </c>
       <c r="T15">
-        <v>2.8924462727386E-05</v>
+        <v>5.411290132135817E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H16">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I16">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J16">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.09900100675710451</v>
+        <v>0.1328223333333333</v>
       </c>
       <c r="N16">
-        <v>0.09900100675710451</v>
+        <v>0.398467</v>
       </c>
       <c r="O16">
-        <v>0.0006951793635566143</v>
+        <v>0.0008876833376071904</v>
       </c>
       <c r="P16">
-        <v>0.0006951793635566143</v>
+        <v>0.00088768333760719</v>
       </c>
       <c r="Q16">
-        <v>0.01355284607051138</v>
+        <v>0.03193805980633334</v>
       </c>
       <c r="R16">
-        <v>0.01355284607051138</v>
+        <v>0.287442538257</v>
       </c>
       <c r="S16">
-        <v>1.360736370454707E-06</v>
+        <v>2.837783866271616E-06</v>
       </c>
       <c r="T16">
-        <v>1.360736370454707E-06</v>
+        <v>2.837783866271614E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.2589913208765</v>
+        <v>0.191908</v>
       </c>
       <c r="H17">
-        <v>14.2589913208765</v>
+        <v>0.575724</v>
       </c>
       <c r="I17">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817814</v>
       </c>
       <c r="J17">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817813</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>135.956787211895</v>
+        <v>142.158333</v>
       </c>
       <c r="N17">
-        <v>135.956787211895</v>
+        <v>426.474999</v>
       </c>
       <c r="O17">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241082</v>
       </c>
       <c r="P17">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241081</v>
       </c>
       <c r="Q17">
-        <v>1938.606648868664</v>
+        <v>27.281321369364</v>
       </c>
       <c r="R17">
-        <v>1938.606648868664</v>
+        <v>245.531892324276</v>
       </c>
       <c r="S17">
-        <v>0.1946404881599437</v>
+        <v>0.002424019934272904</v>
       </c>
       <c r="T17">
-        <v>0.1946404881599437</v>
+        <v>0.002424019934272903</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.2589913208765</v>
+        <v>0.191908</v>
       </c>
       <c r="H18">
-        <v>14.2589913208765</v>
+        <v>0.575724</v>
       </c>
       <c r="I18">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817814</v>
       </c>
       <c r="J18">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817813</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.175352711602379</v>
+        <v>0.2277323333333333</v>
       </c>
       <c r="N18">
-        <v>0.175352711602379</v>
+        <v>0.6831970000000001</v>
       </c>
       <c r="O18">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="P18">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="Q18">
-        <v>2.500352792830482</v>
+        <v>0.04370365662533333</v>
       </c>
       <c r="R18">
-        <v>2.500352792830482</v>
+        <v>0.393332909628</v>
       </c>
       <c r="S18">
-        <v>0.0002510410703752695</v>
+        <v>3.883189286402801E-06</v>
       </c>
       <c r="T18">
-        <v>0.0002510410703752695</v>
+        <v>3.8831892864028E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.2589913208765</v>
+        <v>0.191908</v>
       </c>
       <c r="H19">
-        <v>14.2589913208765</v>
+        <v>0.575724</v>
       </c>
       <c r="I19">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817814</v>
       </c>
       <c r="J19">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817813</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.07518513934902</v>
+        <v>4.576418</v>
       </c>
       <c r="N19">
-        <v>4.07518513934902</v>
+        <v>13.729254</v>
       </c>
       <c r="O19">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001626</v>
       </c>
       <c r="P19">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001625</v>
       </c>
       <c r="Q19">
-        <v>58.10802953294257</v>
+        <v>0.878251225544</v>
       </c>
       <c r="R19">
-        <v>58.10802953294257</v>
+        <v>7.904261029896</v>
       </c>
       <c r="S19">
-        <v>0.005834177470145778</v>
+        <v>7.803502070867233E-05</v>
       </c>
       <c r="T19">
-        <v>0.005834177470145778</v>
+        <v>7.803502070867229E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.2589913208765</v>
+        <v>0.191908</v>
       </c>
       <c r="H20">
-        <v>14.2589913208765</v>
+        <v>0.575724</v>
       </c>
       <c r="I20">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817814</v>
       </c>
       <c r="J20">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817813</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.10441272247516</v>
+        <v>2.532751666666667</v>
       </c>
       <c r="N20">
-        <v>2.10441272247516</v>
+        <v>7.598255</v>
       </c>
       <c r="O20">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="P20">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="Q20">
-        <v>30.00680274531539</v>
+        <v>0.4860553068466666</v>
       </c>
       <c r="R20">
-        <v>30.00680274531539</v>
+        <v>4.37449776162</v>
       </c>
       <c r="S20">
-        <v>0.003012750801136352</v>
+        <v>4.318734188141417E-05</v>
       </c>
       <c r="T20">
-        <v>0.003012750801136352</v>
+        <v>4.318734188141415E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.191908</v>
+      </c>
+      <c r="H21">
+        <v>0.575724</v>
+      </c>
+      <c r="I21">
+        <v>0.002551390312817814</v>
+      </c>
+      <c r="J21">
+        <v>0.002551390312817813</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1328223333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.398467</v>
+      </c>
+      <c r="O21">
+        <v>0.0008876833376071904</v>
+      </c>
+      <c r="P21">
+        <v>0.00088768333760719</v>
+      </c>
+      <c r="Q21">
+        <v>0.02548966834533333</v>
+      </c>
+      <c r="R21">
+        <v>0.229407015108</v>
+      </c>
+      <c r="S21">
+        <v>2.26482666842077E-06</v>
+      </c>
+      <c r="T21">
+        <v>2.264826668420769E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H22">
+        <v>48.726854</v>
+      </c>
+      <c r="I22">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J22">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>142.158333</v>
+      </c>
+      <c r="N22">
+        <v>426.474999</v>
+      </c>
+      <c r="O22">
+        <v>0.9500780504241082</v>
+      </c>
+      <c r="P22">
+        <v>0.9500780504241081</v>
+      </c>
+      <c r="Q22">
+        <v>2308.976112324794</v>
+      </c>
+      <c r="R22">
+        <v>20780.78501092314</v>
+      </c>
+      <c r="S22">
+        <v>0.2051588355364817</v>
+      </c>
+      <c r="T22">
+        <v>0.2051588355364816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H23">
+        <v>48.726854</v>
+      </c>
+      <c r="I23">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J23">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.2277323333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.6831970000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.00152198950779668</v>
+      </c>
+      <c r="P23">
+        <v>0.00152198950779668</v>
+      </c>
+      <c r="Q23">
+        <v>3.698893385804222</v>
+      </c>
+      <c r="R23">
+        <v>33.290040472238</v>
+      </c>
+      <c r="S23">
+        <v>0.0003286567824390046</v>
+      </c>
+      <c r="T23">
+        <v>0.0003286567824390045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H24">
+        <v>48.726854</v>
+      </c>
+      <c r="I24">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J24">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.576418</v>
+      </c>
+      <c r="N24">
+        <v>13.729254</v>
+      </c>
+      <c r="O24">
+        <v>0.03058529317001626</v>
+      </c>
+      <c r="P24">
+        <v>0.03058529317001625</v>
+      </c>
+      <c r="Q24">
+        <v>74.33148390965734</v>
+      </c>
+      <c r="R24">
+        <v>668.983355186916</v>
+      </c>
+      <c r="S24">
+        <v>0.006604555413633013</v>
+      </c>
+      <c r="T24">
+        <v>0.00660455541363301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>14.2589913208765</v>
-      </c>
-      <c r="H21">
-        <v>14.2589913208765</v>
-      </c>
-      <c r="I21">
-        <v>0.2038801908028853</v>
-      </c>
-      <c r="J21">
-        <v>0.2038801908028853</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.09900100675710451</v>
-      </c>
-      <c r="N21">
-        <v>0.09900100675710451</v>
-      </c>
-      <c r="O21">
-        <v>0.0006951793635566143</v>
-      </c>
-      <c r="P21">
-        <v>0.0006951793635566143</v>
-      </c>
-      <c r="Q21">
-        <v>1.411654496107589</v>
-      </c>
-      <c r="R21">
-        <v>1.411654496107589</v>
-      </c>
-      <c r="S21">
-        <v>0.0001417333012841509</v>
-      </c>
-      <c r="T21">
-        <v>0.0001417333012841509</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H25">
+        <v>48.726854</v>
+      </c>
+      <c r="I25">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J25">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.532751666666667</v>
+      </c>
+      <c r="N25">
+        <v>7.598255</v>
+      </c>
+      <c r="O25">
+        <v>0.01692698356047181</v>
+      </c>
+      <c r="P25">
+        <v>0.01692698356047181</v>
+      </c>
+      <c r="Q25">
+        <v>41.13767355997444</v>
+      </c>
+      <c r="R25">
+        <v>370.23906203977</v>
+      </c>
+      <c r="S25">
+        <v>0.003655194680964756</v>
+      </c>
+      <c r="T25">
+        <v>0.003655194680964755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H26">
+        <v>48.726854</v>
+      </c>
+      <c r="I26">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J26">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1328223333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.398467</v>
+      </c>
+      <c r="O26">
+        <v>0.0008876833376071904</v>
+      </c>
+      <c r="P26">
+        <v>0.00088768333760719</v>
+      </c>
+      <c r="Q26">
+        <v>2.157338148090889</v>
+      </c>
+      <c r="R26">
+        <v>19.416043332818</v>
+      </c>
+      <c r="S26">
+        <v>0.0001916853881503034</v>
+      </c>
+      <c r="T26">
+        <v>0.0001916853881503033</v>
       </c>
     </row>
   </sheetData>
